--- a/medicine/Mort/Dérive_(film,_2018)/Dérive_(film,_2018).xlsx
+++ b/medicine/Mort/Dérive_(film,_2018)/Dérive_(film,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9rive_(film,_2018)</t>
+          <t>Dérive_(film,_2018)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dérive est un film québécois réalisé par David Uloth, qui est sorti en 2018.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9rive_(film,_2018)</t>
+          <t>Dérive_(film,_2018)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux adolescentes, Océane et Marine, ont perdu leur père André, toxicomane. Marine, la cadette, refuse cette mort, s'isole à l'école où elle subit de l'intimidation. Tandis qu'Océane, sa sœur ainée trouve confort auprès d'un homme dans la trentaine avancée. Leur mère ne semble pas remarquer ce que vivent ses deux filles, prise dans les dettes familiales à la suite du décès de son mari.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9rive_(film,_2018)</t>
+          <t>Dérive_(film,_2018)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Dérive
 Titre anglais : The Far Shore
@@ -559,7 +575,7 @@
 Production : Galilé Marion-Gauvin
 Société de production : Unité centrale
 Société de distribution : Axia Films
-Budget : 1,1 million de dollars[1]
+Budget : 1,1 million de dollars
 Pays d'origine :  Canada
 Langue originale : français
 Format : couleur
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9rive_(film,_2018)</t>
+          <t>Dérive_(film,_2018)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mélissa Désormeaux-Poulin : Catherine Beauregard
 Réal Bossé : André Beauregard
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9rive_(film,_2018)</t>
+          <t>Dérive_(film,_2018)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +657,9 @@
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>21e gala Québec Cinéma
 prix Iris de la meilleure interprétation féminine dans un rôle de soutien : Mélissa Désormeaux-Poulin
